--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F13a1</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H2">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I2">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J2">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>4545.013923394227</v>
+        <v>4.337314382902333</v>
       </c>
       <c r="R2">
-        <v>4545.013923394227</v>
+        <v>39.035829446121</v>
       </c>
       <c r="S2">
-        <v>0.05036281167295246</v>
+        <v>3.454858029272455E-05</v>
       </c>
       <c r="T2">
-        <v>0.05036281167295246</v>
+        <v>3.454858029272455E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H3">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I3">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J3">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>9017.330172320622</v>
+        <v>6.663432171846221</v>
       </c>
       <c r="R3">
-        <v>9017.330172320622</v>
+        <v>59.97088954661599</v>
       </c>
       <c r="S3">
-        <v>0.09992006821450264</v>
+        <v>5.307711203081055E-05</v>
       </c>
       <c r="T3">
-        <v>0.09992006821450264</v>
+        <v>5.307711203081055E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H4">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I4">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J4">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>4233.266856249357</v>
+        <v>3.329670468598222</v>
       </c>
       <c r="R4">
-        <v>4233.266856249357</v>
+        <v>29.967034217384</v>
       </c>
       <c r="S4">
-        <v>0.04690837586772896</v>
+        <v>2.652226179087876E-05</v>
       </c>
       <c r="T4">
-        <v>0.04690837586772896</v>
+        <v>2.652226179087876E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H5">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I5">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J5">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>4751.485781154988</v>
+        <v>3.494842461741111</v>
       </c>
       <c r="R5">
-        <v>4751.485781154988</v>
+        <v>31.45358215567</v>
       </c>
       <c r="S5">
-        <v>0.05265070417744983</v>
+        <v>2.783792797585748E-05</v>
       </c>
       <c r="T5">
-        <v>0.05265070417744983</v>
+        <v>2.783792797585748E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H6">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I6">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J6">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>3548.172200341085</v>
+        <v>2.662185803900667</v>
       </c>
       <c r="R6">
-        <v>3548.172200341085</v>
+        <v>23.959672235106</v>
       </c>
       <c r="S6">
-        <v>0.03931691548604384</v>
+        <v>2.120545846590634E-05</v>
       </c>
       <c r="T6">
-        <v>0.03931691548604384</v>
+        <v>2.120545846590634E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H7">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I7">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J7">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>6705.793690966435</v>
+        <v>5.299762327497222</v>
       </c>
       <c r="R7">
-        <v>6705.793690966435</v>
+        <v>47.69786094747499</v>
       </c>
       <c r="S7">
-        <v>0.07430618045799149</v>
+        <v>4.221489339709168E-05</v>
       </c>
       <c r="T7">
-        <v>0.07430618045799149</v>
+        <v>4.221489339709167E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H8">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I8">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J8">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>4633.9165180297</v>
+        <v>11.97954117136667</v>
       </c>
       <c r="R8">
-        <v>4633.9165180297</v>
+        <v>107.8158705423</v>
       </c>
       <c r="S8">
-        <v>0.05134793178618621</v>
+        <v>9.542221372295675E-05</v>
       </c>
       <c r="T8">
-        <v>0.05134793178618621</v>
+        <v>9.542221372295675E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H9">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I9">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J9">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>9193.713361132803</v>
+        <v>18.40421352897777</v>
       </c>
       <c r="R9">
-        <v>9193.713361132803</v>
+        <v>165.6379217608</v>
       </c>
       <c r="S9">
-        <v>0.101874551406446</v>
+        <v>0.0001465975008260437</v>
       </c>
       <c r="T9">
-        <v>0.101874551406446</v>
+        <v>0.0001465975008260437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H10">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I10">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J10">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>4316.071532681208</v>
+        <v>9.196456826577776</v>
       </c>
       <c r="R10">
-        <v>4316.071532681208</v>
+        <v>82.7681114392</v>
       </c>
       <c r="S10">
-        <v>0.04782592560356402</v>
+        <v>7.325374622002621E-05</v>
       </c>
       <c r="T10">
-        <v>0.04782592560356402</v>
+        <v>7.32537462200262E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H11">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I11">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J11">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>4844.427061740278</v>
+        <v>9.652657257888889</v>
       </c>
       <c r="R11">
-        <v>4844.427061740278</v>
+        <v>86.87391532100001</v>
       </c>
       <c r="S11">
-        <v>0.05368057653640277</v>
+        <v>7.688757947243179E-05</v>
       </c>
       <c r="T11">
-        <v>0.05368057653640277</v>
+        <v>7.688757947243179E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H12">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I12">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J12">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>3617.576105398476</v>
+        <v>7.352882827533332</v>
       </c>
       <c r="R12">
-        <v>3617.576105398476</v>
+        <v>66.17594544779999</v>
       </c>
       <c r="S12">
-        <v>0.04008597271198134</v>
+        <v>5.856888395072814E-05</v>
       </c>
       <c r="T12">
-        <v>0.04008597271198134</v>
+        <v>5.856888395072814E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H13">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I13">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J13">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>6836.962146831556</v>
+        <v>14.63779551027777</v>
       </c>
       <c r="R13">
-        <v>6836.962146831556</v>
+        <v>131.7401595925</v>
       </c>
       <c r="S13">
-        <v>0.07575964404501472</v>
+        <v>0.0001165963563740826</v>
       </c>
       <c r="T13">
-        <v>0.07575964404501472</v>
+        <v>0.0001165963563740826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.5401835964552</v>
+        <v>106.600598</v>
       </c>
       <c r="H14">
-        <v>45.5401835964552</v>
+        <v>319.801794</v>
       </c>
       <c r="I14">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091802</v>
       </c>
       <c r="J14">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>3325.748756502706</v>
+        <v>10105.7208069109</v>
       </c>
       <c r="R14">
-        <v>3325.748756502706</v>
+        <v>90951.48726219808</v>
       </c>
       <c r="S14">
-        <v>0.03685226516758757</v>
+        <v>0.08049642610407014</v>
       </c>
       <c r="T14">
-        <v>0.03685226516758757</v>
+        <v>0.08049642610407014</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.5401835964552</v>
+        <v>106.600598</v>
       </c>
       <c r="H15">
-        <v>45.5401835964552</v>
+        <v>319.801794</v>
       </c>
       <c r="I15">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091802</v>
       </c>
       <c r="J15">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>6598.302032301258</v>
+        <v>15525.45635380154</v>
       </c>
       <c r="R15">
-        <v>6598.302032301258</v>
+        <v>139729.1071842138</v>
       </c>
       <c r="S15">
-        <v>0.07311507692057377</v>
+        <v>0.1236669579532716</v>
       </c>
       <c r="T15">
-        <v>0.07311507692057377</v>
+        <v>0.1236669579532716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.5401835964552</v>
+        <v>106.600598</v>
       </c>
       <c r="H16">
-        <v>45.5401835964552</v>
+        <v>319.801794</v>
       </c>
       <c r="I16">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091802</v>
       </c>
       <c r="J16">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>3097.63231101421</v>
+        <v>7757.961993097125</v>
       </c>
       <c r="R16">
-        <v>3097.63231101421</v>
+        <v>69821.65793787412</v>
       </c>
       <c r="S16">
-        <v>0.03432453130862047</v>
+        <v>0.06179551426638117</v>
       </c>
       <c r="T16">
-        <v>0.03432453130862047</v>
+        <v>0.06179551426638116</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.5401835964552</v>
+        <v>106.600598</v>
       </c>
       <c r="H17">
-        <v>45.5401835964552</v>
+        <v>319.801794</v>
       </c>
       <c r="I17">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091802</v>
       </c>
       <c r="J17">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>3476.831577320083</v>
+        <v>8142.804294223127</v>
       </c>
       <c r="R17">
-        <v>3476.831577320083</v>
+        <v>73285.23864800815</v>
       </c>
       <c r="S17">
-        <v>0.03852639769613252</v>
+        <v>0.06486094922606504</v>
       </c>
       <c r="T17">
-        <v>0.03852639769613252</v>
+        <v>0.06486094922606506</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.5401835964552</v>
+        <v>106.600598</v>
       </c>
       <c r="H18">
-        <v>45.5401835964552</v>
+        <v>319.801794</v>
       </c>
       <c r="I18">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091802</v>
       </c>
       <c r="J18">
-        <v>0.2659603420337356</v>
+        <v>0.4785860256091801</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>2596.324121781638</v>
+        <v>6202.756843357827</v>
       </c>
       <c r="R18">
-        <v>2596.324121781638</v>
+        <v>55824.81159022044</v>
       </c>
       <c r="S18">
-        <v>0.02876958904662315</v>
+        <v>0.04940763429179812</v>
       </c>
       <c r="T18">
-        <v>0.02876958904662315</v>
+        <v>0.04940763429179812</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>106.600598</v>
+      </c>
+      <c r="H19">
+        <v>319.801794</v>
+      </c>
+      <c r="I19">
+        <v>0.4785860256091802</v>
+      </c>
+      <c r="J19">
+        <v>0.4785860256091801</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N19">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q19">
+        <v>12348.17532152988</v>
+      </c>
+      <c r="R19">
+        <v>111133.5778937689</v>
+      </c>
+      <c r="S19">
+        <v>0.09835854376759418</v>
+      </c>
+      <c r="T19">
+        <v>0.09835854376759416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>65.578509</v>
+      </c>
+      <c r="H20">
+        <v>196.735527</v>
+      </c>
+      <c r="I20">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J20">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.799851</v>
+      </c>
+      <c r="N20">
+        <v>284.399553</v>
+      </c>
+      <c r="O20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q20">
+        <v>6216.832882002159</v>
+      </c>
+      <c r="R20">
+        <v>55951.49593801943</v>
+      </c>
+      <c r="S20">
+        <v>0.04951975601237808</v>
+      </c>
+      <c r="T20">
+        <v>0.04951975601237808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>65.578509</v>
+      </c>
+      <c r="H21">
+        <v>196.735527</v>
+      </c>
+      <c r="I21">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J21">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N21">
+        <v>436.924088</v>
+      </c>
+      <c r="O21">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P21">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q21">
+        <v>9550.943412408262</v>
+      </c>
+      <c r="R21">
+        <v>85958.49071167437</v>
+      </c>
+      <c r="S21">
+        <v>0.0760773848111175</v>
+      </c>
+      <c r="T21">
+        <v>0.0760773848111175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>65.578509</v>
+      </c>
+      <c r="H22">
+        <v>196.735527</v>
+      </c>
+      <c r="I22">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J22">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N22">
+        <v>218.327912</v>
+      </c>
+      <c r="O22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q22">
+        <v>4772.539647347736</v>
+      </c>
+      <c r="R22">
+        <v>42952.85682612962</v>
+      </c>
+      <c r="S22">
+        <v>0.0380153372917993</v>
+      </c>
+      <c r="T22">
+        <v>0.0380153372917993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>65.578509</v>
+      </c>
+      <c r="H23">
+        <v>196.735527</v>
+      </c>
+      <c r="I23">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J23">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N23">
+        <v>229.15831</v>
+      </c>
+      <c r="O23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q23">
+        <v>5009.28676491993</v>
+      </c>
+      <c r="R23">
+        <v>45083.58088427937</v>
+      </c>
+      <c r="S23">
+        <v>0.03990113022227183</v>
+      </c>
+      <c r="T23">
+        <v>0.03990113022227183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>45.5401835964552</v>
-      </c>
-      <c r="H19">
-        <v>45.5401835964552</v>
-      </c>
-      <c r="I19">
-        <v>0.2659603420337356</v>
-      </c>
-      <c r="J19">
-        <v>0.2659603420337356</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q19">
-        <v>4906.868362779467</v>
-      </c>
-      <c r="R19">
-        <v>4906.868362779467</v>
-      </c>
-      <c r="S19">
-        <v>0.0543724818941981</v>
-      </c>
-      <c r="T19">
-        <v>0.0543724818941981</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>65.578509</v>
+      </c>
+      <c r="H24">
+        <v>196.735527</v>
+      </c>
+      <c r="I24">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J24">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N24">
+        <v>174.560658</v>
+      </c>
+      <c r="O24">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P24">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q24">
+        <v>3815.809227232974</v>
+      </c>
+      <c r="R24">
+        <v>34342.28304509676</v>
+      </c>
+      <c r="S24">
+        <v>0.03039456673660866</v>
+      </c>
+      <c r="T24">
+        <v>0.03039456673660866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>65.578509</v>
+      </c>
+      <c r="H25">
+        <v>196.735527</v>
+      </c>
+      <c r="I25">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J25">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>7596.345064185524</v>
+      </c>
+      <c r="R25">
+        <v>68367.10557766972</v>
+      </c>
+      <c r="S25">
+        <v>0.06050816570175403</v>
+      </c>
+      <c r="T25">
+        <v>0.06050816570175401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H26">
+        <v>151.08959</v>
+      </c>
+      <c r="I26">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J26">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>4774.423539883696</v>
+      </c>
+      <c r="R26">
+        <v>42969.81185895327</v>
+      </c>
+      <c r="S26">
+        <v>0.03803034330860963</v>
+      </c>
+      <c r="T26">
+        <v>0.03803034330860963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H27">
+        <v>151.08959</v>
+      </c>
+      <c r="I27">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J27">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>7334.964590782656</v>
+      </c>
+      <c r="R27">
+        <v>66014.68131704391</v>
+      </c>
+      <c r="S27">
+        <v>0.0584261574646046</v>
+      </c>
+      <c r="T27">
+        <v>0.0584261574646046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H28">
+        <v>151.08959</v>
+      </c>
+      <c r="I28">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J28">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>3665.230523292897</v>
+      </c>
+      <c r="R28">
+        <v>32987.07470963608</v>
+      </c>
+      <c r="S28">
+        <v>0.02919514239606386</v>
+      </c>
+      <c r="T28">
+        <v>0.02919514239606386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H29">
+        <v>151.08959</v>
+      </c>
+      <c r="I29">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J29">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>3847.048344776988</v>
+      </c>
+      <c r="R29">
+        <v>34623.4351029929</v>
+      </c>
+      <c r="S29">
+        <v>0.0306433997852338</v>
+      </c>
+      <c r="T29">
+        <v>0.03064339978523381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H30">
+        <v>151.08959</v>
+      </c>
+      <c r="I30">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J30">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>2930.477583038913</v>
+      </c>
+      <c r="R30">
+        <v>26374.29824735022</v>
+      </c>
+      <c r="S30">
+        <v>0.02334251823495936</v>
+      </c>
+      <c r="T30">
+        <v>0.02334251823495936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H31">
+        <v>151.08959</v>
+      </c>
+      <c r="I31">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J31">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>5833.865793067026</v>
+      </c>
+      <c r="R31">
+        <v>52504.79213760324</v>
+      </c>
+      <c r="S31">
+        <v>0.04646925792681093</v>
+      </c>
+      <c r="T31">
+        <v>0.04646925792681093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.078905</v>
+      </c>
+      <c r="I32">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J32">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.799851</v>
+      </c>
+      <c r="N32">
+        <v>284.399553</v>
+      </c>
+      <c r="O32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q32">
+        <v>2.493394081051667</v>
+      </c>
+      <c r="R32">
+        <v>22.440546729465</v>
+      </c>
+      <c r="S32">
+        <v>1.986095957217068E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.986095957217067E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.078905</v>
+      </c>
+      <c r="I33">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J33">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P33">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q33">
+        <v>3.830610573737777</v>
+      </c>
+      <c r="R33">
+        <v>34.47549516364</v>
+      </c>
+      <c r="S33">
+        <v>3.05124658472144E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.05124658472144E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.078905</v>
+      </c>
+      <c r="I34">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J34">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N34">
+        <v>218.327912</v>
+      </c>
+      <c r="O34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q34">
+        <v>1.914129321817778</v>
+      </c>
+      <c r="R34">
+        <v>17.22716389636</v>
+      </c>
+      <c r="S34">
+        <v>1.524686585463247E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.524686585463247E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.078905</v>
+      </c>
+      <c r="I35">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J35">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N35">
+        <v>229.15831</v>
+      </c>
+      <c r="O35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q35">
+        <v>2.009081827838889</v>
+      </c>
+      <c r="R35">
+        <v>18.08173645055</v>
+      </c>
+      <c r="S35">
+        <v>1.600320353012986E-05</v>
+      </c>
+      <c r="T35">
+        <v>1.600320353012986E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.078905</v>
+      </c>
+      <c r="I36">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J36">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N36">
+        <v>174.560658</v>
+      </c>
+      <c r="O36">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P36">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q36">
+        <v>1.530412079943333</v>
+      </c>
+      <c r="R36">
+        <v>13.77370871949</v>
+      </c>
+      <c r="S36">
+        <v>1.219039247726775E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.219039247726775E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.078905</v>
+      </c>
+      <c r="I37">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J37">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N37">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q37">
+        <v>3.046677010652778</v>
+      </c>
+      <c r="R37">
+        <v>27.420093095875</v>
+      </c>
+      <c r="S37">
+        <v>2.426809680743073E-05</v>
+      </c>
+      <c r="T37">
+        <v>2.426809680743072E-05</v>
       </c>
     </row>
   </sheetData>
